--- a/src/cab/perm/falcon.psi.wh.xlsx
+++ b/src/cab/perm/falcon.psi.wh.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC16BE5-D638-834A-81E7-C7595A7C609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B639AF92-D7D3-7642-8613-DC4E8C0F3E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56560" yWindow="-5220" windowWidth="50720" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
+    <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -667,7 +667,7 @@
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="21" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="21" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="21" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="21" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="21" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="21" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -762,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="21" customHeight="1">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -771,14 +771,14 @@
       <c r="G16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="21" customHeight="1">
       <c r="A17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="21" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="21" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -832,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="21" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
